--- a/docs/Plantillas/Plantilla_Rpto_Operaciones_InformeConsolidadoPM0.xlsx
+++ b/docs/Plantillas/Plantilla_Rpto_Operaciones_InformeConsolidadoPM0.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Año</t>
   </si>
@@ -47,12 +47,15 @@
   <si>
     <t>Informe Consolidado Total de Pasajeros Movilizados</t>
   </si>
+  <si>
+    <t>% Ocupacion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +66,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -117,6 +128,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,8 +448,7 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -481,6 +494,9 @@
       <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H8" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
